--- a/svg/rirekisho_01_excel.xlsx
+++ b/svg/rirekisho_01_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921CF3D-C58A-4663-BEC5-15AEAF9B1372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE1768-63F5-49A7-9879-C88EB4DDDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26625" yWindow="495" windowWidth="24150" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="960" windowWidth="24150" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>履　歴　書</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>$[admin_name]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$[user_address]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -854,12 +858,202 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,204 +1063,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,7 +1704,7 @@
   <dimension ref="B1:R61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:G14"/>
+      <selection activeCell="D26" sqref="D26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1731,245 +1735,247 @@
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="51"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="71"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="72"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="2:18" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="14"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="68" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="91"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="51"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="87" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="51"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="68"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="50"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="68"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="B15" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="50"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="81"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -1979,243 +1985,243 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="68" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="93"/>
     </row>
     <row r="18" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="44"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="91"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="51"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="87" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="51"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="95" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="H20" s="50"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="2:18" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="22"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="68"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="50"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="2:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="55"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="81"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="2:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K23" s="34"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="26"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="36"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="34"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="34"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="85"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="61"/>
       <c r="M30" s="56"/>
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
@@ -2223,13 +2229,13 @@
       <c r="Q30" s="56"/>
     </row>
     <row r="31" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -2239,433 +2245,433 @@
       <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="34"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="K32" s="73" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="K32" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="73" t="s">
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="46"/>
+      <c r="Q32" s="64"/>
     </row>
     <row r="33" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="35"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="84"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="34"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="79"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="73"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="35"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="51" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="71"/>
+      <c r="Q35" s="47"/>
     </row>
     <row r="36" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="34"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="79"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="73"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="35"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="73" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" s="46"/>
+      <c r="Q37" s="64"/>
     </row>
     <row r="38" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="34"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="64"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="84"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="53"/>
     </row>
     <row r="39" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="35"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="51" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="Q39" s="71"/>
+      <c r="Q39" s="47"/>
     </row>
     <row r="40" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="34"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="31"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="49"/>
     </row>
     <row r="41" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="49" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="69" t="s">
+      <c r="Q41" s="68" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="70"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="69"/>
     </row>
     <row r="43" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="66" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="Q43" s="66" t="s">
+      <c r="Q43" s="65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="34"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="64"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
     </row>
     <row r="45" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="34"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="64"/>
-      <c r="K46" s="73" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="K46" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="46"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="64"/>
     </row>
     <row r="47" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="35"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="76"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="60"/>
     </row>
     <row r="48" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="34"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="64"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="35"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
     </row>
     <row r="50" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="34"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
     </row>
     <row r="51" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="35"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
     </row>
     <row r="52" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="34"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
     </row>
     <row r="53" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="35"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
     </row>
     <row r="54" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="34"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="64"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
     </row>
     <row r="55" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="35"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
     </row>
     <row r="56" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="37"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
     </row>
     <row r="57" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="41"/>
-      <c r="C57" s="54"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="80"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
     </row>
     <row r="58" spans="2:17" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="10" t="s">
@@ -2708,42 +2714,65 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D30:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:Q5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:F8"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:Q13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="B15:G16"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:Q30"/>
-    <mergeCell ref="K32:O33"/>
-    <mergeCell ref="P32:Q33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D34:H35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:H33"/>
-    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:Q18"/>
+    <mergeCell ref="M6:Q7"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M27:Q28"/>
+    <mergeCell ref="M21:Q22"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:Q20"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:Q11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="M23:Q24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:Q26"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:H57"/>
+    <mergeCell ref="K56:Q57"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="K52:Q53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="K54:Q55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:H49"/>
+    <mergeCell ref="K48:Q49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:H51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:H55"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="Q43:Q44"/>
@@ -2768,34 +2797,46 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:H37"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:H57"/>
-    <mergeCell ref="K56:Q57"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="K52:Q53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="K54:Q55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:H49"/>
-    <mergeCell ref="K48:Q49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:H51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:H43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="M29:Q30"/>
+    <mergeCell ref="K32:O33"/>
+    <mergeCell ref="P32:Q33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D34:H35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:H33"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="M4:Q5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:F8"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:Q13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="B15:G16"/>
     <mergeCell ref="M14:Q15"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:Q9"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D30:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="L29:L30"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -2805,41 +2846,6 @@
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:Q24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:Q26"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:Q18"/>
-    <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M27:Q28"/>
-    <mergeCell ref="M21:Q22"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:Q20"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:Q11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
